--- a/results/LogisticRegression.xlsx
+++ b/results/LogisticRegression.xlsx
@@ -493,141 +493,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+          <t>Pipeline(steps=[('scaler', None),
                 ('selector',
                  SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 LogisticRegression(C=0.001, max_iter=1000, penalty='l1',
-                                    random_state=42, solver='saga'))])</t>
+                 LogisticRegression(C=3, max_iter=1000, penalty='l1',
+                                    random_state=42, solver='liblinear'))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.742245989304813</v>
+        <v>0.657142857142857</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 0.001}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'liblinear', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 3}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 0 1 0 1 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.695134927881641</v>
+        <v>0.6720982142857143</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03951963679554579</v>
+        <v>0.02757616013048205</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6061346756135124</v>
+        <v>0.5688988095238096</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07851893802063564</v>
+        <v>0.0576685283626349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
                  LogisticRegression(C=0.0001, max_iter=1000, random_state=42,
-                                    solver='saga'))])</t>
+                                    solver='liblinear'))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7422459893048128</v>
+        <v>0.6285714285714284</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.0001}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.0001}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 0 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6436204522993205</v>
+        <v>0.6718081435472741</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03938925228747329</v>
+        <v>0.02626674109451626</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5663253122409249</v>
+        <v>0.5620427881297446</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07508604057257313</v>
+        <v>0.05862149506263768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 LogisticRegression(C=0.0001, max_iter=1000, random_state=42,
-                                    solver='saga'))])</t>
+                 LogisticRegression(C=0.001, class_weight='balanced',
+                                    max_iter=1000, random_state=42,
+                                    solver='liblinear'))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7422459893048128</v>
+        <v>0.6285714285714284</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.0001}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': 'balanced', 'model__C': 0.001}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 1 0 1 0 0 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6740522041853223</v>
+        <v>0.6454648526077097</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03581003897219025</v>
+        <v>0.03256913678233541</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5550042526808704</v>
+        <v>0.5413454270597127</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0692490805091119</v>
+        <v>0.09148660837376747</v>
       </c>
     </row>
   </sheetData>

--- a/results/LogisticRegression.xlsx
+++ b/results/LogisticRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,101 +493,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
                  SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 LogisticRegression(C=3, max_iter=1000, penalty='l1',
-                                    random_state=42, solver='liblinear'))])</t>
+                 LogisticRegression(C=1, max_iter=1000, random_state=42,
+                                    solver='liblinear'))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.657142857142857</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'liblinear', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 3}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 1}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 1 1 1 0 1 1]</t>
+          <t>[0 0 1 0 0 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6720982142857143</v>
+        <v>0.6736607142857142</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02757616013048205</v>
+        <v>0.02294307765069291</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5688988095238096</v>
+        <v>0.5801587301587302</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0576685283626349</v>
+        <v>0.05163003293260471</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 LogisticRegression(C=0.0001, max_iter=1000, random_state=42,
-                                    solver='liblinear'))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6285714285714284</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6718081435472741</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.02626674109451626</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5620427881297446</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.05862149506263768</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
@@ -595,20 +547,69 @@
                                                      random_state=42))),
                 ('model',
                  LogisticRegression(C=0.001, class_weight='balanced',
+                                    max_iter=1000, penalty='l1',
+                                    random_state=42, solver='saga'))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6285714285714284</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': 'balanced', 'model__C': 0.001}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7692307692307692</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 1 0 1 0 0 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6616071428571429</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02780134286098932</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5494897959183673</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0768380854278453</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 LogisticRegression(C=0.0001, class_weight='balanced',
                                     max_iter=1000, random_state=42,
-                                    solver='liblinear'))])</t>
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6285714285714284</v>
+        <v>0.6380952380952382</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': 'balanced', 'model__C': 0.001}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l2', 'model__class_weight': 'balanced', 'model__C': 0.0001}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -617,23 +618,121 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 1 0 1 0 0 1]</t>
+          <t>[0 0 0 1 1 1 1 0 1 0 0 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6454648526077097</v>
+        <v>0.6779503105590062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03256913678233541</v>
+        <v>0.03239758790717629</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5413454270597127</v>
+        <v>0.5616977225672877</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09148660837376747</v>
+        <v>0.08836305531615225</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model',
+                 LogisticRegression(C=0.001, class_weight='balanced',
+                                    max_iter=1000, penalty='l1',
+                                    random_state=42, solver='saga'))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': 'balanced', 'model__C': 0.001}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 0 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.667340521114106</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03268945269624195</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5324348607367476</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07788552347151424</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a6c5dd400&gt;),
+                ('model',
+                 LogisticRegression(C=5, max_iter=1000, random_state=42,
+                                    solver='liblinear'))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3b000c7550&gt;, 'scaler': None, 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 5}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 1 1 1 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6886684303350968</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02529738266553202</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5599647266313932</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.05978725111305908</v>
       </c>
     </row>
   </sheetData>

--- a/results/LogisticRegression.xlsx
+++ b/results/LogisticRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,74 +493,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcd830ec7f0&gt;),
                 ('model',
-                 LogisticRegression(C=1, max_iter=1000, random_state=42,
-                                    solver='liblinear'))])</t>
+                 LogisticRegression(C=0.001, max_iter=1000, penalty='l1',
+                                    random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6952380952380952</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd05b8280&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 0.001}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 1 1 0 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6736607142857142</v>
+        <v>0.6878918445268462</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02294307765069291</v>
+        <v>0.02528469101974435</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5801587301587302</v>
+        <v>0.5356606825058111</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05163003293260471</v>
+        <v>0.1140383560203002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
                 ('model',
-                 LogisticRegression(C=0.001, class_weight='balanced',
-                                    max_iter=1000, penalty='l1',
+                 LogisticRegression(C=0.001, max_iter=1000, penalty='l1',
                                     random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6285714285714284</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': 'balanced', 'model__C': 0.001}</t>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 0.001}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -569,72 +565,69 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 0 1 0 0 1 1 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6616071428571429</v>
+        <v>0.6788105034562584</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02780134286098932</v>
+        <v>0.03752756148099251</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5494897959183673</v>
+        <v>0.5998008522619248</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0768380854278453</v>
+        <v>0.1084886848915931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
-                 LogisticRegression(C=0.0001, class_weight='balanced',
-                                    max_iter=1000, random_state=42,
-                                    solver='saga'))])</t>
+                 LogisticRegression(C=0.001, max_iter=1000, random_state=42,
+                                    solver='liblinear'))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6380952380952382</v>
+        <v>0.7454966602025426</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l2', 'model__class_weight': 'balanced', 'model__C': 0.0001}</t>
+          <t>{'selector': None, 'scaler': None, 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.001}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0 0 0 1 1 1 1 0 1 0 0 1]</t>
+          <t>[1 1 1 1 0 1 0 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6779503105590062</v>
+        <v>0.6690905657273518</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03239758790717629</v>
+        <v>0.03647870619649027</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5616977225672877</v>
+        <v>0.619240616409734</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08836305531615225</v>
+        <v>0.1019958782216921</v>
       </c>
     </row>
     <row r="5">
@@ -642,97 +635,47 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fccd05b82b0&gt;),
                 ('model',
-                 LogisticRegression(C=0.001, class_weight='balanced',
-                                    max_iter=1000, penalty='l1',
+                 LogisticRegression(C=5, max_iter=1000, penalty='l1',
                                     random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.7833496732026144</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': 'balanced', 'model__C': 0.001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd062ddc0&gt;, 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 5}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0 1 0 0 0 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.667340521114106</v>
+        <v>0.6776477636809651</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03268945269624195</v>
+        <v>0.05188238151774472</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5324348607367476</v>
+        <v>0.6297977454020652</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07788552347151424</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a6c5dd400&gt;),
-                ('model',
-                 LogisticRegression(C=5, max_iter=1000, random_state=42,
-                                    solver='liblinear'))])</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3b000c7550&gt;, 'scaler': None, 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 5}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4615384615384615</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 1 1 1 1 0 1 0]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6886684303350968</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.02529738266553202</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5599647266313932</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.05978725111305908</v>
+        <v>0.1230233327050151</v>
       </c>
     </row>
   </sheetData>

--- a/results/LogisticRegression.xlsx
+++ b/results/LogisticRegression.xlsx
@@ -495,7 +495,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcd830ec7f0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f7b44610850&gt;),
                 ('model',
                  LogisticRegression(C=0.001, max_iter=1000, penalty='l1',
                                     random_state=42, solver='saga'))])</t>
@@ -506,7 +506,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd05b8280&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 0.001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f7bf754aac0&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 0.001}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -635,7 +635,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fccd05b82b0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f7be8494d60&gt;),
                 ('model',
                  LogisticRegression(C=5, max_iter=1000, penalty='l1',
                                     random_state=42, solver='saga'))])</t>
@@ -646,7 +646,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd062ddc0&gt;, 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f7bf7ac4a00&gt;, 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 5}</t>
         </is>
       </c>
       <c r="D5" t="n">

--- a/results/LogisticRegression.xlsx
+++ b/results/LogisticRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,231 +451,364 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f7b44610850&gt;),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
-                 LogisticRegression(C=0.001, max_iter=1000, penalty='l1',
+                 LogisticRegression(C=0.001, class_weight='balanced',
+                                    max_iter=1000, penalty='l1',
                                     random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.675</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f7bf754aac0&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 0.001}</t>
+          <t>{'selector': None, 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': 'balanced', 'model__C': 0.001}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.6819558074846874</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5297022075147075</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7317073170731707</v>
       </c>
       <c r="G2" t="n">
+        <v>0.6554199243609264</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.529928695436508</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7341145833333332</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 1 1 1 1 1 1 0 0 1 1 0 1 0 0 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6878918445268462</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02528469101974435</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5356606825058111</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1140383560203002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 LogisticRegression(C=0.001, max_iter=1000, penalty='l1',
+                 LogisticRegression(C=0.001, class_weight='balanced',
+                                    max_iter=1000, penalty='l1',
                                     random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.5935714285714285</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 0.001}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': 'balanced', 'model__C': 0.001}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.6404245019018466</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5102484280425457</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.744186046511628</v>
       </c>
       <c r="G3" t="n">
+        <v>0.6303603067722844</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4706950280112045</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6825367647058824</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5920588235294116</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6788105034562584</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.03752756148099251</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5998008522619248</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1084886848915931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f5f820&gt;),
                 ('model',
-                 LogisticRegression(C=0.001, max_iter=1000, random_state=42,
-                                    solver='liblinear'))])</t>
+                 LogisticRegression(C=0.0001, class_weight='balanced',
+                                    max_iter=1000, random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7454966602025426</v>
+        <v>0.6027777777777777</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae06dbb80&gt;, 'scaler': StandardScaler(), 'model__solver': 'saga', 'model__penalty': 'l2', 'model__class_weight': 'balanced', 'model__C': 0.0001}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 0 1 1 1 1 0]</t>
-        </is>
+        <v>0.6417001378370673</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4863641913641913</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7272727272727274</v>
       </c>
       <c r="G4" t="n">
+        <v>0.6267829376156202</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4758810763888889</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.676768092105263</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5328124999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6690905657273518</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.03647870619649027</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.619240616409734</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1019958782216921</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+                ('model',
+                 LogisticRegression(C=0.0001, max_iter=1000, random_state=42,
+                                    solver='liblinear'))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6635714285714285</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6548798845160976</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5342089941308691</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6222222222222223</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6252248636652304</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4929458085317461</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7178943452380953</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6237499999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 0 1 1 0 1 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f7be8494d60&gt;),
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 LogisticRegression(C=5, max_iter=1000, penalty='l1',
+                 LogisticRegression(C=0.001, class_weight='balanced',
+                                    max_iter=1000, penalty='l1',
                                     random_state=42, solver='saga'))])</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7833496732026144</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f7bf7ac4a00&gt;, 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 5}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>99</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6776477636809651</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.05188238151774472</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6297977454020652</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1230233327050151</v>
+      <c r="B6" t="n">
+        <v>0.7130952380952381</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': 'balanced', 'model__C': 0.001}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.637630847692335</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5119848093618585</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6160874602827673</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4657832422586521</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6776825633383011</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5957377049180327</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 0 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1 1 1 0 1 1 0 0 1 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/LogisticRegression.xlsx
+++ b/results/LogisticRegression.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.675</v>
+        <v>0.7512820512820513</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -529,40 +529,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6819558074846874</v>
+        <v>0.6563714620297117</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5297022075147075</v>
+        <v>0.5559950813075812</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.7096774193548386</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6554199243609264</v>
+        <v>0.6441498937684872</v>
       </c>
       <c r="H2" t="n">
-        <v>0.529928695436508</v>
+        <v>0.5479141865079364</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7341145833333332</v>
+        <v>0.6924867021276595</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5774999999999999</v>
+        <v>0.5986979166666666</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.6875</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 1 1 1 1 1 1 0 0 1 1 0 1 0 0 0 0 1 1 1]</t>
+          <t>[1 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -572,59 +572,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
                 ('model',
-                 LogisticRegression(C=0.001, class_weight='balanced',
-                                    max_iter=1000, penalty='l1',
+                 LogisticRegression(C=0.001, max_iter=1000, penalty='l1',
                                     random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5935714285714285</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': 'balanced', 'model__C': 0.001}</t>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 0.001}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6404245019018466</v>
+        <v>0.6650555282310263</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5102484280425457</v>
+        <v>0.5591489801048625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.744186046511628</v>
+        <v>0.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6303603067722844</v>
+        <v>0.6368700552463364</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4706950280112045</v>
+        <v>0.5822584033613446</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6825367647058824</v>
+        <v>0.7230600750938673</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5920588235294116</v>
+        <v>0.5838235294117646</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -634,58 +630,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f5f820&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa0013b550&gt;),
                 ('model',
-                 LogisticRegression(C=0.0001, class_weight='balanced',
-                                    max_iter=1000, random_state=42,
-                                    solver='saga'))])</t>
+                 LogisticRegression(C=5, max_iter=1000, random_state=42,
+                                    solver='liblinear'))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6027777777777777</v>
+        <v>0.6941025641025641</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae06dbb80&gt;, 'scaler': StandardScaler(), 'model__solver': 'saga', 'model__penalty': 'l2', 'model__class_weight': 'balanced', 'model__C': 0.0001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa00129a90&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 5}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6417001378370673</v>
+        <v>0.6351495788518212</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4863641913641913</v>
+        <v>0.539090197996448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7272727272727274</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6267829376156202</v>
+        <v>0.6217265611945623</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4758810763888889</v>
+        <v>0.5364186507936508</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.8</v>
       </c>
       <c r="J4" t="n">
-        <v>0.676768092105263</v>
+        <v>0.6663194444444444</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5328124999999999</v>
+        <v>0.5840625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0]</t>
+          <t>[1 1 1 0 1 1 0 1 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -695,116 +690,115 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa00129640&gt;),
+                ('model',
+                 LogisticRegression(C=0.0001, max_iter=1000, random_state=42,
+                                    solver='saga'))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7664285714285713</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa00039f10&gt;, 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6633817260601386</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5895066218503718</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.635783598306968</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5703980654761904</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7242346938775509</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6562500000000001</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
                  LogisticRegression(C=0.0001, max_iter=1000, random_state=42,
                                     solver='liblinear'))])</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.6635714285714285</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6548798845160976</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5342089941308691</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6222222222222223</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6252248636652304</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.4929458085317461</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7178943452380953</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6237499999999999</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 0 1 1 0 1 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 LogisticRegression(C=0.001, class_weight='balanced',
-                                    max_iter=1000, penalty='l1',
-                                    random_state=42, solver='saga'))])</t>
-        </is>
-      </c>
       <c r="B6" t="n">
-        <v>0.7130952380952381</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': 'balanced', 'model__C': 0.001}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.0001}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.637630847692335</v>
+        <v>0.6306959182515954</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5119848093618585</v>
+        <v>0.5261904034035181</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6160874602827673</v>
+        <v>0.6044979785268462</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4657832422586521</v>
+        <v>0.5028011969815248</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6776825633383011</v>
+        <v>0.6764501891551072</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5957377049180327</v>
+        <v>0.5816939890710383</v>
       </c>
       <c r="L6" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 0 0 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1 1 1 0 1 1 0 0 1 0 0 0 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/LogisticRegression.xlsx
+++ b/results/LogisticRegression.xlsx
@@ -513,47 +513,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f9f10b82520&gt;),
                 ('model',
-                 LogisticRegression(C=0.001, class_weight='balanced',
-                                    max_iter=1000, penalty='l1',
-                                    random_state=42, solver='saga'))])</t>
+                 LogisticRegression(C=0.01, max_iter=1000, random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7512820512820513</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': 'balanced', 'model__C': 0.001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9f10b82f70&gt;, 'scaler': StandardScaler(), 'model__solver': 'saga', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.01}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6563714620297117</v>
+        <v>0.6602761322303702</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5559950813075812</v>
+        <v>0.635128205128205</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7096774193548386</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6441498937684872</v>
+        <v>0.6427771489809923</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5479141865079364</v>
+        <v>0.6317658730158729</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6924867021276595</v>
+        <v>0.6975177304964539</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5986979166666666</v>
+        <v>0.6749999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6875</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -562,7 +563,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -572,43 +573,45 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f9f901db1f0&gt;),
                 ('model',
-                 LogisticRegression(C=0.001, max_iter=1000, penalty='l1',
-                                    random_state=42, solver='saga'))])</t>
+                 LogisticRegression(C=0.01, max_iter=1000, random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__solver': 'saga', 'model__penalty': 'l1', 'model__class_weight': None, 'model__C': 0.001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa79c082b20&gt;, 'scaler': StandardScaler(), 'model__solver': 'saga', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.01}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6650555282310263</v>
+        <v>0.6920291399061833</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5591489801048625</v>
+        <v>0.6138057775557776</v>
       </c>
       <c r="F3" t="n">
         <v>0.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6368700552463364</v>
+        <v>0.66629407892541</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5822584033613446</v>
+        <v>0.6736805555555555</v>
       </c>
       <c r="I3" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7230600750938673</v>
+        <v>0.7352836879432624</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5838235294117646</v>
+        <v>0.5958333333333332</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -630,48 +633,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa0013b550&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fa79c082cd0&gt;),
                 ('model',
-                 LogisticRegression(C=5, max_iter=1000, random_state=42,
+                 LogisticRegression(C=0.01, max_iter=1000, random_state=42,
                                     solver='liblinear'))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6941025641025641</v>
+        <v>0.7037373737373737</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa00129a90&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9f7034fe20&gt;, 'scaler': StandardScaler(), 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.01}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6351495788518212</v>
+        <v>0.6863842110669429</v>
       </c>
       <c r="E4" t="n">
-        <v>0.539090197996448</v>
+        <v>0.670060495060495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6217265611945623</v>
+        <v>0.6818331618905783</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5364186507936508</v>
+        <v>0.6828869047619048</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6663194444444444</v>
+        <v>0.702962962962963</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5840625</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="L4" t="n">
-        <v>0.631578947368421</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -680,7 +683,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 0 1 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1]</t>
+          <t>[0 1 1 0 1 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -690,45 +693,45 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa00129640&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f9f7034fd60&gt;),
                 ('model',
-                 LogisticRegression(C=0.0001, max_iter=1000, random_state=42,
+                 LogisticRegression(C=0.01, max_iter=1000, random_state=42,
                                     solver='saga'))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7664285714285713</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa00039f10&gt;, 'scaler': None, 'model__solver': 'saga', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.0001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa6ccf7cca0&gt;, 'scaler': StandardScaler(), 'model__solver': 'saga', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.01}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6633817260601386</v>
+        <v>0.6864114358775925</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5895066218503718</v>
+        <v>0.635421152921153</v>
       </c>
       <c r="F5" t="n">
         <v>0.7368421052631579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.635783598306968</v>
+        <v>0.6711041734286211</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5703980654761904</v>
+        <v>0.6458796296296295</v>
       </c>
       <c r="I5" t="n">
         <v>0.5833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7242346938775509</v>
+        <v>0.7304421768707482</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6562500000000001</v>
+        <v>0.6763888888888888</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -750,10 +753,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fa6ccf7cdc0&gt;),
                 ('model',
-                 LogisticRegression(C=0.0001, max_iter=1000, random_state=42,
-                                    solver='liblinear'))])</t>
+                 LogisticRegression(C=0.01, max_iter=1000, random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -761,32 +766,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__solver': 'liblinear', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.0001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9f10b85b80&gt;, 'scaler': StandardScaler(), 'model__solver': 'saga', 'model__penalty': 'l2', 'model__class_weight': None, 'model__C': 0.01}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6306959182515954</v>
+        <v>0.7549849134722101</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5261904034035181</v>
+        <v>0.7000421337921338</v>
       </c>
       <c r="F6" t="n">
         <v>0.6285714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6044979785268462</v>
+        <v>0.7186948995873639</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5028011969815248</v>
+        <v>0.6418088624338623</v>
       </c>
       <c r="I6" t="n">
         <v>0.4583333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6764501891551072</v>
+        <v>0.8121794871794871</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5816939890710383</v>
+        <v>0.7958333333333333</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
